--- a/Assets/Stories.xlsx
+++ b/Assets/Stories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\visualstudio workstation\TheMoneyIsAlwaysRight\TheMoneyIsAlwaysRight\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78EA94A-F91E-4B4E-89B3-11F6E3753DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E28B667-28AF-4807-8D08-997967CF0337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="1260" windowWidth="21600" windowHeight="11385" xr2:uid="{2B3A7A2A-41FE-48F0-8011-C13D9C1E3496}"/>
+    <workbookView xWindow="2850" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{2B3A7A2A-41FE-48F0-8011-C13D9C1E3496}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>#SOS1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,7 +50,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>this is test story</t>
+    <t>#EOS2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOS2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOS3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EOS3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOS4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EOS4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOS5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EOS5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOS6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EOS6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EOS7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOS7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리 1-1. 앞으로 진행한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리 1-2. 게임 끝. 다시 처음으로 돌아간다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리 1-3. 현제에 머무른다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리 2-1. 앞으로 진행한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리 2-2. 게임 끝. 다시 처음으로 돌아간다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리 2-3. 현제에 머무른다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리 2-4. 이전으로 돌아간다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8226566C-F20D-40E4-813F-125FF91969D3}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -450,7 +522,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -460,6 +532,96 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Assets/Stories.xlsx
+++ b/Assets/Stories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\visualstudio workstation\TheMoneyIsAlwaysRight\TheMoneyIsAlwaysRight\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E28B667-28AF-4807-8D08-997967CF0337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3372DF53-8F12-4EB1-BFBE-438B231C1669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{2B3A7A2A-41FE-48F0-8011-C13D9C1E3496}"/>
+    <workbookView xWindow="9480" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{2B3A7A2A-41FE-48F0-8011-C13D9C1E3496}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,68 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>#SOS1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#EOS1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>#EOF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#EOS2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#SOS2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#SOS3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#EOS3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#SOS4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#EOS4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#SOS5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#EOS5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#SOS6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#EOS6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#EOS7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#SOS7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스토리 1-1. 앞으로 진행한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,6 +67,86 @@
   </si>
   <si>
     <t>스토리 2-4. 이전으로 돌아간다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOS1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EOS1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOS1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EOS1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOS1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EOS1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOS2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EOS2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOS2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EOS2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOS2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EOS2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOS2-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EOS2-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOS0-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EOS0-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리 0-1. 1을 눌러 게임 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOS0-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EOS0-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 : 진행, 2 : 게임 엔딩 , 3:현제에 머무른다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,122 +531,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8226566C-F20D-40E4-813F-125FF91969D3}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Stories.xlsx
+++ b/Assets/Stories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\visualstudio workstation\TheMoneyIsAlwaysRight\TheMoneyIsAlwaysRight\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3372DF53-8F12-4EB1-BFBE-438B231C1669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21116EB-7FF4-43CC-8D16-201A07DC5537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{2B3A7A2A-41FE-48F0-8011-C13D9C1E3496}"/>
+    <workbookView xWindow="4335" yWindow="2625" windowWidth="21600" windowHeight="11385" xr2:uid="{2B3A7A2A-41FE-48F0-8011-C13D9C1E3496}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,40 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>#EOF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스토리 1-1. 앞으로 진행한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스토리 1-2. 게임 끝. 다시 처음으로 돌아간다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스토리 1-3. 현제에 머무른다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스토리 2-1. 앞으로 진행한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스토리 2-2. 게임 끝. 다시 처음으로 돌아간다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스토리 2-3. 현제에 머무른다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스토리 2-4. 이전으로 돌아간다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#SOS1-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,46 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#SOS1-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#EOS1-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#SOS2-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#EOS2-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#SOS2-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#EOS2-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#SOS2-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#EOS2-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#SOS2-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#EOS2-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#SOS0-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,7 +78,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 : 진행, 2 : 게임 엔딩 , 3:현제에 머무른다</t>
+    <t>!임시!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 여기서는 잘수 없었다. 그레서 안자기로 했다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>==엔딩1 : 그리고 아무일도 없었다.==</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅁㄴㅇㄹ1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대충 유튜버가 폐가에서 자면 얼마를 준다고 미션이 걸림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔다:1 , 안잔다:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>===============================</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,8 +149,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -531,62 +490,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8226566C-F20D-40E4-813F-125FF91969D3}">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
@@ -596,86 +555,41 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
+      <c r="A15" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>14</v>
+      <c r="A16" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>4</v>
+      <c r="A17" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Stories.xlsx
+++ b/Assets/Stories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\visualstudio workstation\TheMoneyIsAlwaysRight\TheMoneyIsAlwaysRight\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21116EB-7FF4-43CC-8D16-201A07DC5537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E1EDB4-A7F0-4F1E-B446-8D820BCB91F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="2625" windowWidth="21600" windowHeight="11385" xr2:uid="{2B3A7A2A-41FE-48F0-8011-C13D9C1E3496}"/>
+    <workbookView xWindow="9000" yWindow="4665" windowWidth="21600" windowHeight="11385" xr2:uid="{2B3A7A2A-41FE-48F0-8011-C13D9C1E3496}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>#EOF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㅁㄴㅇㄹ1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대충 유튜버가 폐가에서 자면 얼마를 준다고 미션이 걸림</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,6 +99,201 @@
   </si>
   <si>
     <t>===============================</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOS2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EOS2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOS2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EOS2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOS2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EOS2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈을 떠보니 이세계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 : 밖으로, 2 : 동굴 둘러보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동굴 둘러보다 바게트 발견한다는 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:강화 2:강화안함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 선택 했다는 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOS3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EOS3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOS3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EOS3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화한다는 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화 안한다는 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동굴 밖으로 나간단 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대충 주변 둘러보고 동굴 밖으로 나간단 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괴물 만났단 내용(중복)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:싸우기, 2:대화하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOS4-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EOS4-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대충 강화바게트로 괴물 죽임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대충 생존자 만남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대충 귀환물품 만드는법 알게됨</t>
+  </si>
+  <si>
+    <t>대충 귀환물품 만드는법 알게됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대충 귀환물품 만듦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀환물품 사용?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:사용 2:사용x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOS4-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대충 말 걸었다는 뜻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대충 생존자 있는곳으로 안내됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EOS4-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOS4-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EOS4-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대충 바게트 강화 안해서 바게트 부러짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대충 괴물한테 죽음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대충 괴물한테 죽는 엔딩/ 엔딩-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=====================</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOS5-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대충 탈출엔딩/엔딩-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EOS5-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOS5-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EOS5-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOS5-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EOS5-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대충 노인이 깨우는 엔딩/엔딩5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대충 사유지침범으로 체포/엔딩4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8226566C-F20D-40E4-813F-125FF91969D3}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -525,12 +716,12 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
@@ -545,51 +736,321 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Stories.xlsx
+++ b/Assets/Stories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\visualstudio workstation\TheMoneyIsAlwaysRight\TheMoneyIsAlwaysRight\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E1EDB4-A7F0-4F1E-B446-8D820BCB91F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D85313C-06A2-4E4A-B3D1-CF37A5B439EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="4665" windowWidth="21600" windowHeight="11385" xr2:uid="{2B3A7A2A-41FE-48F0-8011-C13D9C1E3496}"/>
+    <workbookView xWindow="7065" yWindow="3585" windowWidth="21600" windowHeight="11385" xr2:uid="{2B3A7A2A-41FE-48F0-8011-C13D9C1E3496}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>#EOF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +294,22 @@
   </si>
   <si>
     <t>대충 사유지침범으로 체포/엔딩4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOS2-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EOS2-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동굴이다(고정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여긴 동굴이다(고정)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8226566C-F20D-40E4-813F-125FF91969D3}">
-  <dimension ref="A1:A73"/>
+  <dimension ref="A1:A78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -861,196 +877,221 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>55</v>
+      <c r="A62" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>59</v>
+      <c r="A67" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>0</v>
       </c>
     </row>
